--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_4_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1200129.029491215</v>
+        <v>1161828.256991928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16597726.15245798</v>
+        <v>16618375.1158991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248444</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7057401.381998127</v>
+        <v>7061919.906426428</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>218.4901916324137</v>
       </c>
       <c r="D2" t="n">
-        <v>76.55246125880686</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>21.99131174256587</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>102.5509574751953</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -902,16 +902,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>175.9720412960303</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.97715937730158</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1111,10 +1111,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>165.4825827656711</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,10 +1142,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>73.78311634844674</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>33.08339867820333</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>229.7552611298609</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>64.34965323462509</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247625</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.67077719907196</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>347.6097274870432</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998659</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738374</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.2534186025707</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>364.8064609075515</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907229</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>163.5395542426793</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056503</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.24391673888129</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630696</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>240.9739924675005</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068459</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015889</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>240.9739924675008</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>119.9348501475804</v>
+        <v>20.08472694640582</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.95997704284511</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>165.2047610440499</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791319825</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325231</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820079</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618.1368421616916</v>
+        <v>353.6244098440065</v>
       </c>
       <c r="C2" t="n">
-        <v>179.9943693451149</v>
+        <v>132.9272465789422</v>
       </c>
       <c r="D2" t="n">
-        <v>102.6686509018756</v>
+        <v>101.0578657937908</v>
       </c>
       <c r="E2" t="n">
-        <v>72.93431010057486</v>
+        <v>71.32352499249002</v>
       </c>
       <c r="F2" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="G2" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="H2" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="I2" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="J2" t="n">
-        <v>484.3619720031045</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="K2" t="n">
-        <v>1092.064618311664</v>
+        <v>635.2656800381117</v>
       </c>
       <c r="L2" t="n">
-        <v>1132.008730489121</v>
+        <v>635.2656800381117</v>
       </c>
       <c r="M2" t="n">
-        <v>1132.008730489121</v>
+        <v>635.2656800381117</v>
       </c>
       <c r="N2" t="n">
-        <v>1132.008730489121</v>
+        <v>635.2656800381117</v>
       </c>
       <c r="O2" t="n">
-        <v>1132.008730489121</v>
+        <v>1071.402940797429</v>
       </c>
       <c r="P2" t="n">
-        <v>1739.711376797681</v>
+        <v>1659.172121393439</v>
       </c>
       <c r="Q2" t="n">
-        <v>2286.210162756276</v>
+        <v>2205.670907352034</v>
       </c>
       <c r="R2" t="n">
-        <v>2455.364227509333</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="S2" t="n">
-        <v>2455.364227509333</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="T2" t="n">
-        <v>2235.297000382372</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.297000382372</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="V2" t="n">
-        <v>1872.680050316198</v>
+        <v>2012.208022038917</v>
       </c>
       <c r="W2" t="n">
-        <v>1467.824595727231</v>
+        <v>1607.35256744995</v>
       </c>
       <c r="X2" t="n">
-        <v>1452.722536346946</v>
+        <v>1188.210104029261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1044.436412646599</v>
+        <v>779.9239803289144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.2790295414794</v>
+        <v>553.6682444333946</v>
       </c>
       <c r="C3" t="n">
-        <v>448.8225683781217</v>
+        <v>447.2117832700369</v>
       </c>
       <c r="D3" t="n">
-        <v>353.732279524675</v>
+        <v>352.1214944165902</v>
       </c>
       <c r="E3" t="n">
-        <v>259.6118648516287</v>
+        <v>258.0010797435439</v>
       </c>
       <c r="F3" t="n">
-        <v>176.2280264677903</v>
+        <v>174.6172413597055</v>
       </c>
       <c r="G3" t="n">
-        <v>90.8429367339742</v>
+        <v>89.23215162588934</v>
       </c>
       <c r="H3" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="I3" t="n">
-        <v>75.17095771064426</v>
+        <v>73.56017260255942</v>
       </c>
       <c r="J3" t="n">
-        <v>399.7292826768566</v>
+        <v>398.1184975687717</v>
       </c>
       <c r="K3" t="n">
-        <v>399.7292826768566</v>
+        <v>985.8876781647817</v>
       </c>
       <c r="L3" t="n">
-        <v>399.7292826768566</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="M3" t="n">
-        <v>399.7292826768566</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="N3" t="n">
-        <v>399.7292826768566</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="O3" t="n">
-        <v>446.7326829940203</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="P3" t="n">
-        <v>1054.43532930258</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="Q3" t="n">
-        <v>1595.174267934656</v>
+        <v>1593.563482826571</v>
       </c>
       <c r="R3" t="n">
-        <v>1712.347046028995</v>
+        <v>1710.736260920911</v>
       </c>
       <c r="S3" t="n">
-        <v>1648.891608477378</v>
+        <v>1647.280823369294</v>
       </c>
       <c r="T3" t="n">
-        <v>1518.71296480798</v>
+        <v>1517.102179699895</v>
       </c>
       <c r="U3" t="n">
-        <v>1342.376417807948</v>
+        <v>1340.765632699864</v>
       </c>
       <c r="V3" t="n">
-        <v>1143.258899869948</v>
+        <v>1141.648114761863</v>
       </c>
       <c r="W3" t="n">
-        <v>957.9361456031418</v>
+        <v>956.3253604950571</v>
       </c>
       <c r="X3" t="n">
-        <v>803.0687098420218</v>
+        <v>801.457924733937</v>
       </c>
       <c r="Y3" t="n">
-        <v>676.5829306212426</v>
+        <v>674.9721455131578</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1128.165445162068</v>
+        <v>754.6147077494727</v>
       </c>
       <c r="C4" t="n">
-        <v>955.6037336452929</v>
+        <v>582.0529962326976</v>
       </c>
       <c r="D4" t="n">
-        <v>789.7257408468156</v>
+        <v>416.1750034342203</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9677370975529</v>
+        <v>246.4169996849576</v>
       </c>
       <c r="F4" t="n">
-        <v>443.2606830593091</v>
+        <v>69.70994564671381</v>
       </c>
       <c r="G4" t="n">
-        <v>277.6694080851368</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="H4" t="n">
-        <v>137.7672337755113</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="I4" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="J4" t="n">
-        <v>49.10728455018666</v>
+        <v>47.49649944210181</v>
       </c>
       <c r="K4" t="n">
-        <v>200.0427573423586</v>
+        <v>287.696276802449</v>
       </c>
       <c r="L4" t="n">
-        <v>618.2526391103197</v>
+        <v>705.9061585704101</v>
       </c>
       <c r="M4" t="n">
-        <v>1077.736506291233</v>
+        <v>1165.390025751323</v>
       </c>
       <c r="N4" t="n">
-        <v>1519.995309448877</v>
+        <v>1607.648828908968</v>
       </c>
       <c r="O4" t="n">
-        <v>1939.664558674659</v>
+        <v>2027.318078134749</v>
       </c>
       <c r="P4" t="n">
-        <v>2287.171452645</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="Q4" t="n">
-        <v>2455.364227509333</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="R4" t="n">
-        <v>2455.364227509333</v>
+        <v>2374.824972105091</v>
       </c>
       <c r="S4" t="n">
-        <v>2455.364227509333</v>
+        <v>2215.583603403087</v>
       </c>
       <c r="T4" t="n">
-        <v>2455.364227509333</v>
+        <v>1969.704156981542</v>
       </c>
       <c r="U4" t="n">
-        <v>2351.777401776812</v>
+        <v>1691.271156234648</v>
       </c>
       <c r="V4" t="n">
-        <v>2064.821893647243</v>
+        <v>1691.271156234648</v>
       </c>
       <c r="W4" t="n">
-        <v>1792.795489233534</v>
+        <v>1419.244751820939</v>
       </c>
       <c r="X4" t="n">
-        <v>1547.403734566947</v>
+        <v>1173.852997154352</v>
       </c>
       <c r="Y4" t="n">
-        <v>1319.984063881055</v>
+        <v>946.4333264684599</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.493479979994</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.351007163417</v>
+        <v>1381.415549500749</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.441222337862</v>
+        <v>945.5057646751934</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4565,28 +4565,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4610,7 +4610,7 @@
         <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2616.793050464902</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="F7" t="n">
         <v>447.554615037751</v>
@@ -4723,19 +4723,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4750,25 +4750,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.45307593959</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.310603123013</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>912.4008182974577</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6260734557529</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4802,52 +4802,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2595.532426079461</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2232.915476013288</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.100425464725</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.99836608444</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.712242384094</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4984,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146356</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,43 +5048,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.381259633332</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>3994.892354179639</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1012.231663489991</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C13" t="n">
-        <v>839.6699519732163</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D13" t="n">
-        <v>673.7919591747388</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E13" t="n">
-        <v>504.0339554254761</v>
+        <v>527.6942549188559</v>
       </c>
       <c r="F13" t="n">
-        <v>327.3269013872323</v>
+        <v>350.9872008806121</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7356264130599</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1972.548411468546</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1700.522007054838</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1455.13025238825</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.050282208978</v>
+        <v>1227.710581702358</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5291,25 +5291,25 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5419,31 +5419,31 @@
         <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284816</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902378</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,19 +5458,19 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2677.839094654636</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="W16" t="n">
         <v>1840.424181364463</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>403.2461837293691</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687547</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928798</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245815</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179641</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590675</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170195</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177155</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987274</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819523</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>467.790109783475</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342123</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959685</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883916</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
         <v>780.1951658309357</v>
@@ -6154,16 +6154,16 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471575</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.79963505003</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
         <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6385,13 +6385,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745665</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>286.0912842876363</v>
       </c>
       <c r="G31" t="n">
         <v>242.1630145804051</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="32">
@@ -6883,22 +6883,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
         <v>1144.575496066698</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903957</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736206</v>
+        <v>863.1668995435761</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.754677688392</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C40" t="n">
-        <v>811.7546776883921</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>811.7546776883921</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>641.9966739391294</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>465.2896199008857</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6983449267133</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>159.7961706170878</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436402</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7421,22 +7421,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595857</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>469.4349624223539</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436408</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>613.8410568773331</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="L2" t="n">
-        <v>40.34758805803722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>440.5426876356744</v>
       </c>
       <c r="P2" t="n">
-        <v>613.8410568773334</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67.61299598961</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.47818213854919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>613.8410568773332</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>152.4600735274465</v>
+        <v>242.6260377377245</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8237,7 +8237,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8474,7 +8474,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>185.1957776566215</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74.15349933190413</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.1445778789294</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>11.38105307846854</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.986369995734</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>184.783156177488</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>50.14457787893093</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.5921776627249</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>268.0111327346206</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.67467827192525</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.67467827192488</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.28436272291216</v>
+        <v>144.1344859240867</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>30.81337269022628</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>77.73307607587174</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-5.85001617220778e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>184.783156177491</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627259</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>608662.3673849436</v>
+        <v>607836.4088472989</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>595016.9983974705</v>
+        <v>595016.9983974703</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>595016.9983974705</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620127.3956664938</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620127.3956664938</v>
+        <v>620127.3956664939</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620127.3956664938</v>
+        <v>595016.9983974702</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="F2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="G2" t="n">
-        <v>341228.6311308817</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="H2" t="n">
-        <v>341228.6311308816</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927127</v>
@@ -26353,7 +26353,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927129</v>
+        <v>341228.6311308814</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205712.2565039026</v>
+        <v>198964.6172816936</v>
       </c>
       <c r="C3" t="n">
-        <v>17340.54437390701</v>
+        <v>23845.51249725146</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>161735.0752101144</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18633.22400329728</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160607.829485613</v>
+        <v>155339.6762503661</v>
       </c>
       <c r="K3" t="n">
-        <v>13814.00856784543</v>
+        <v>18996.06533906519</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134989.9446130035</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154094.417433826</v>
+        <v>161027.5341043219</v>
       </c>
       <c r="C4" t="n">
-        <v>143739.7342216207</v>
+        <v>147081.7407966328</v>
       </c>
       <c r="D4" t="n">
-        <v>143739.7342216207</v>
+        <v>147081.7407966328</v>
       </c>
       <c r="E4" t="n">
-        <v>45969.06148807723</v>
+        <v>50964.64992646087</v>
       </c>
       <c r="F4" t="n">
-        <v>45969.06148807723</v>
+        <v>50964.64992646087</v>
       </c>
       <c r="G4" t="n">
-        <v>45969.06148807723</v>
+        <v>50964.64992646087</v>
       </c>
       <c r="H4" t="n">
-        <v>45969.06148807723</v>
+        <v>53115.41639158173</v>
       </c>
       <c r="I4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="J4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="K4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="L4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="M4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="N4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158176</v>
       </c>
       <c r="O4" t="n">
-        <v>47909.00841254932</v>
+        <v>53115.41639158172</v>
       </c>
       <c r="P4" t="n">
-        <v>47909.00841254932</v>
+        <v>50964.64992646086</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70949.13625814187</v>
+        <v>69724.93957599738</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,16 +26476,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764751</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68856.36926984478</v>
+        <v>-67817.6500359872</v>
       </c>
       <c r="C6" t="n">
-        <v>126606.6377687402</v>
+        <v>116759.6630703838</v>
       </c>
       <c r="D6" t="n">
-        <v>143947.1821426473</v>
+        <v>140605.1755676352</v>
       </c>
       <c r="E6" t="n">
-        <v>60005.15215504239</v>
+        <v>54933.00516186197</v>
       </c>
       <c r="F6" t="n">
-        <v>221740.2273651569</v>
+        <v>216668.0803719763</v>
       </c>
       <c r="G6" t="n">
-        <v>221740.2273651569</v>
+        <v>216668.0803719763</v>
       </c>
       <c r="H6" t="n">
-        <v>221740.2273651569</v>
+        <v>206138.7659526587</v>
       </c>
       <c r="I6" t="n">
-        <v>211636.9066415314</v>
+        <v>224771.9899559559</v>
       </c>
       <c r="J6" t="n">
-        <v>69393.79278875783</v>
+        <v>69432.31370558977</v>
       </c>
       <c r="K6" t="n">
-        <v>216187.6137065254</v>
+        <v>205775.9246168906</v>
       </c>
       <c r="L6" t="n">
-        <v>230001.6222743709</v>
+        <v>224771.9899559559</v>
       </c>
       <c r="M6" t="n">
-        <v>95011.67766136746</v>
+        <v>89782.04534295251</v>
       </c>
       <c r="N6" t="n">
-        <v>230001.6222743709</v>
+        <v>224771.9899559559</v>
       </c>
       <c r="O6" t="n">
-        <v>230001.6222743709</v>
+        <v>224771.989955956</v>
       </c>
       <c r="P6" t="n">
-        <v>230001.6222743711</v>
+        <v>216668.0803719762</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773332</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,16 +26796,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.199708513939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8410568773332</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="C4" t="n">
-        <v>53.67414973052371</v>
+        <v>73.80896358158429</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>541.6845019060829</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773332</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052371</v>
+        <v>73.80896358158429</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6845019060829</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.8410568773332</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="K4" t="n">
-        <v>53.67414973052371</v>
+        <v>73.80896358158429</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6845019060829</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>69.06079487080592</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>215.2708564559972</v>
       </c>
       <c r="D2" t="n">
-        <v>354.998225718493</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>141.9440504818647</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.0977132642304</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>253.4649560972575</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>54.79268646174609</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>182.8469633077065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>613.8410568773331</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="L2" t="n">
-        <v>40.34758805803722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>440.5426876356744</v>
       </c>
       <c r="P2" t="n">
-        <v>613.8410568773334</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>593.7062430262727</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67.61299598961</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.47818213854919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>613.8410568773332</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>152.4600735274465</v>
+        <v>242.6260377377245</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -34957,7 +34957,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35100,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35194,7 +35194,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35659,16 +35659,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36522,19 +36522,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637955999</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960969</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
